--- a/new-table-builders/tests/test-1-return.xlsx
+++ b/new-table-builders/tests/test-1-return.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41300" yWindow="-460" windowWidth="25600" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="37220" yWindow="-460" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="display" sheetId="3" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="242">
   <si>
     <t>hsa-miR-10a-5p</t>
   </si>
@@ -515,6 +515,237 @@
   </si>
   <si>
     <t>url</t>
+  </si>
+  <si>
+    <t>WP236</t>
+  </si>
+  <si>
+    <t>WikiPathways_20170210</t>
+  </si>
+  <si>
+    <t>Homo sapiens</t>
+  </si>
+  <si>
+    <t>WP1403</t>
+  </si>
+  <si>
+    <t>WP3678</t>
+  </si>
+  <si>
+    <t>WP138</t>
+  </si>
+  <si>
+    <t>WP3915</t>
+  </si>
+  <si>
+    <t>WP2586</t>
+  </si>
+  <si>
+    <t>WP3680</t>
+  </si>
+  <si>
+    <t>WP3878</t>
+  </si>
+  <si>
+    <t>WP23</t>
+  </si>
+  <si>
+    <t>WP3676</t>
+  </si>
+  <si>
+    <t>WP2795</t>
+  </si>
+  <si>
+    <t>WP179</t>
+  </si>
+  <si>
+    <t>WP3929</t>
+  </si>
+  <si>
+    <t>WP3594</t>
+  </si>
+  <si>
+    <t>WP3286</t>
+  </si>
+  <si>
+    <t>WP710</t>
+  </si>
+  <si>
+    <t>WP262</t>
+  </si>
+  <si>
+    <t>WP437</t>
+  </si>
+  <si>
+    <t>WP2853</t>
+  </si>
+  <si>
+    <t>WP581</t>
+  </si>
+  <si>
+    <t>WP3931</t>
+  </si>
+  <si>
+    <t>WP3850</t>
+  </si>
+  <si>
+    <t>WP314</t>
+  </si>
+  <si>
+    <t>WP306</t>
+  </si>
+  <si>
+    <t>WP3932</t>
+  </si>
+  <si>
+    <t>WP2854</t>
+  </si>
+  <si>
+    <t>WP3657</t>
+  </si>
+  <si>
+    <t>WP195</t>
+  </si>
+  <si>
+    <t>WP127</t>
+  </si>
+  <si>
+    <t>WP364</t>
+  </si>
+  <si>
+    <t>WP2112</t>
+  </si>
+  <si>
+    <t>WP481</t>
+  </si>
+  <si>
+    <t>WP1984</t>
+  </si>
+  <si>
+    <t>WP1971</t>
+  </si>
+  <si>
+    <t>WP2377</t>
+  </si>
+  <si>
+    <t>WP3935</t>
+  </si>
+  <si>
+    <t>WP2034</t>
+  </si>
+  <si>
+    <t>WP382</t>
+  </si>
+  <si>
+    <t>WP3937</t>
+  </si>
+  <si>
+    <t>WP1544</t>
+  </si>
+  <si>
+    <t>WP411</t>
+  </si>
+  <si>
+    <t>WP2064</t>
+  </si>
+  <si>
+    <t>WP288</t>
+  </si>
+  <si>
+    <t>WP268</t>
+  </si>
+  <si>
+    <t>WP61</t>
+  </si>
+  <si>
+    <t>WP400</t>
+  </si>
+  <si>
+    <t>WP3651</t>
+  </si>
+  <si>
+    <t>WP3611</t>
+  </si>
+  <si>
+    <t>WP3844</t>
+  </si>
+  <si>
+    <t>WP2037</t>
+  </si>
+  <si>
+    <t>WP2018</t>
+  </si>
+  <si>
+    <t>WP51</t>
+  </si>
+  <si>
+    <t>WP3872</t>
+  </si>
+  <si>
+    <t>WP2038</t>
+  </si>
+  <si>
+    <t>WP1449</t>
+  </si>
+  <si>
+    <t>WP2446</t>
+  </si>
+  <si>
+    <t>WP3865</t>
+  </si>
+  <si>
+    <t>WP615</t>
+  </si>
+  <si>
+    <t>WP313</t>
+  </si>
+  <si>
+    <t>WP2261</t>
+  </si>
+  <si>
+    <t>WP2431</t>
+  </si>
+  <si>
+    <t>WP2637</t>
+  </si>
+  <si>
+    <t>WP69</t>
+  </si>
+  <si>
+    <t>WP3863</t>
+  </si>
+  <si>
+    <t>WP2583</t>
+  </si>
+  <si>
+    <t>WP366</t>
+  </si>
+  <si>
+    <t>WP3851</t>
+  </si>
+  <si>
+    <t>WP231</t>
+  </si>
+  <si>
+    <t>WP2036</t>
+  </si>
+  <si>
+    <t>WP75</t>
+  </si>
+  <si>
+    <t>WP399</t>
+  </si>
+  <si>
+    <t>WP363</t>
+  </si>
+  <si>
+    <t>wpid</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>species</t>
   </si>
 </sst>
 </file>
@@ -1935,23 +2166,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="48" customWidth="1"/>
     <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>163</v>
       </c>
@@ -1959,1462 +2190,2118 @@
         <v>164</v>
       </c>
       <c r="C1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" t="s">
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>9612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E3" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>9612</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" t="s">
+        <v>166</v>
       </c>
       <c r="E14" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>93</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
       </c>
       <c r="E15" t="s">
-        <v>0</v>
-      </c>
-      <c r="F15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
+        <v>91</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" t="s">
+        <v>166</v>
       </c>
       <c r="E16" t="s">
-        <v>0</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>167</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
+        <v>160</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" t="s">
+        <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>0</v>
+      </c>
+      <c r="I17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>146</v>
+      </c>
+      <c r="B19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C19" t="s">
+        <v>184</v>
+      </c>
+      <c r="D19" t="s">
+        <v>166</v>
+      </c>
+      <c r="E19" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B22" t="s">
+        <v>133</v>
+      </c>
+      <c r="C22" t="s">
+        <v>187</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" t="s">
+        <v>188</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>0</v>
+      </c>
+      <c r="I23" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" t="s">
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>0</v>
+      </c>
+      <c r="I25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
         <v>134</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B26" t="s">
         <v>135</v>
       </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="C26" t="s">
+        <v>191</v>
+      </c>
+      <c r="D26" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" t="s">
-        <v>162</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>0</v>
-      </c>
-      <c r="F22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" t="s">
+        <v>192</v>
+      </c>
+      <c r="D27" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>193</v>
+      </c>
+      <c r="D28" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" t="s">
+        <v>167</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
+        <v>194</v>
+      </c>
+      <c r="D29" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B30" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="C30" t="s">
+        <v>195</v>
+      </c>
+      <c r="D30" t="s">
+        <v>166</v>
+      </c>
+      <c r="E30" t="s">
+        <v>167</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>5294</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25">
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>196</v>
+      </c>
+      <c r="D31" t="s">
+        <v>166</v>
+      </c>
+      <c r="E31" t="s">
+        <v>167</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31">
         <v>6885</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>46</v>
-      </c>
-      <c r="B30" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>3198</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>50</v>
       </c>
       <c r="B32" t="s">
         <v>51</v>
       </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
+      <c r="C32" t="s">
+        <v>197</v>
+      </c>
+      <c r="D32" t="s">
+        <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32">
         <v>6885</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>148</v>
       </c>
       <c r="B33" t="s">
-        <v>59</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>198</v>
+      </c>
+      <c r="D33" t="s">
+        <v>166</v>
       </c>
       <c r="E33" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F33">
-        <v>9612</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" t="s">
+        <v>166</v>
       </c>
       <c r="E34" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F34">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
-      </c>
-      <c r="D35">
-        <v>1</v>
+        <v>35</v>
+      </c>
+      <c r="C35" t="s">
+        <v>200</v>
+      </c>
+      <c r="D35" t="s">
+        <v>166</v>
       </c>
       <c r="E35" t="s">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="F35">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
+        <v>61</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>166</v>
       </c>
       <c r="E36" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s">
+        <v>202</v>
+      </c>
+      <c r="D37" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" t="s">
+        <v>167</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>203</v>
+      </c>
+      <c r="D38" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" t="s">
+        <v>167</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>5728</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>9612</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
-        <v>70</v>
-      </c>
-      <c r="B38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="E38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38">
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>204</v>
+      </c>
+      <c r="D39" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>6885</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
-        <v>72</v>
-      </c>
-      <c r="B39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
+        <v>139</v>
+      </c>
+      <c r="C40" t="s">
+        <v>205</v>
+      </c>
+      <c r="D40" t="s">
+        <v>166</v>
       </c>
       <c r="E40" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F40">
-        <v>9612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
+        <v>29</v>
+      </c>
+      <c r="C41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D41" t="s">
+        <v>166</v>
       </c>
       <c r="E41" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F41">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="C42" t="s">
+        <v>207</v>
+      </c>
+      <c r="D42" t="s">
+        <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" t="s">
+        <v>208</v>
+      </c>
+      <c r="D43" t="s">
+        <v>166</v>
+      </c>
+      <c r="E43" t="s">
+        <v>167</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>3198</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
-        <v>80</v>
-      </c>
-      <c r="B43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43" t="s">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>82</v>
       </c>
       <c r="B44" t="s">
         <v>83</v>
       </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+      <c r="C44" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" t="s">
+        <v>166</v>
       </c>
       <c r="E44" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>6885</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" t="s">
+        <v>166</v>
+      </c>
+      <c r="E45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>9612</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" t="s">
+        <v>211</v>
+      </c>
+      <c r="D46" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" t="s">
+        <v>167</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>9612</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D47" t="s">
+        <v>166</v>
+      </c>
+      <c r="E47" t="s">
+        <v>167</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" t="s">
+        <v>166</v>
+      </c>
+      <c r="E49" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49" t="s">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>215</v>
+      </c>
+      <c r="D50" t="s">
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>167</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>44</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" t="s">
+        <v>216</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+      <c r="E51" t="s">
+        <v>167</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" t="s">
+        <v>217</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53" t="s">
+        <v>218</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
+      </c>
+      <c r="E53" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C54" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" t="s">
+        <v>166</v>
+      </c>
+      <c r="E54" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>5294</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" t="s">
+        <v>220</v>
+      </c>
+      <c r="D55" t="s">
+        <v>166</v>
+      </c>
+      <c r="E55" t="s">
+        <v>167</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56" t="s">
+        <v>221</v>
+      </c>
+      <c r="D56" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" t="s">
+        <v>167</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>222</v>
+      </c>
+      <c r="D57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2</v>
+      </c>
+      <c r="I57">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" t="s">
+        <v>223</v>
+      </c>
+      <c r="D58" t="s">
+        <v>166</v>
+      </c>
+      <c r="E58" t="s">
+        <v>167</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" t="s">
+        <v>156</v>
+      </c>
+      <c r="C59" t="s">
+        <v>224</v>
+      </c>
+      <c r="D59" t="s">
+        <v>166</v>
+      </c>
+      <c r="E59" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
         <v>86</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B60" t="s">
         <v>87</v>
       </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45" t="s">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="C60" t="s">
+        <v>225</v>
+      </c>
+      <c r="D60" t="s">
+        <v>166</v>
+      </c>
+      <c r="E60" t="s">
+        <v>167</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+      <c r="H60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60">
         <v>5728</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" t="s">
-        <v>89</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46" t="s">
-        <v>0</v>
-      </c>
-      <c r="F46">
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>52</v>
+      </c>
+      <c r="B61" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" t="s">
+        <v>166</v>
+      </c>
+      <c r="E61" t="s">
+        <v>167</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61">
+        <v>2</v>
+      </c>
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" t="s">
+        <v>166</v>
+      </c>
+      <c r="E62" t="s">
+        <v>167</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+      <c r="H62" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" t="s">
+        <v>167</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63">
         <v>6885</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47" t="s">
-        <v>0</v>
-      </c>
-      <c r="F47">
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C64" t="s">
+        <v>229</v>
+      </c>
+      <c r="D64" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" t="s">
+        <v>167</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="C65" t="s">
+        <v>230</v>
+      </c>
+      <c r="D65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E65" t="s">
+        <v>167</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>231</v>
+      </c>
+      <c r="D66" t="s">
+        <v>166</v>
+      </c>
+      <c r="E66" t="s">
+        <v>167</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66">
         <v>5728</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
-      </c>
-      <c r="D48">
-        <v>1</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48">
-        <v>890</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" t="s">
+        <v>166</v>
+      </c>
+      <c r="E67" t="s">
+        <v>167</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>118</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" t="s">
+        <v>166</v>
+      </c>
+      <c r="E68" t="s">
+        <v>167</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" t="s">
+        <v>234</v>
+      </c>
+      <c r="D69" t="s">
+        <v>166</v>
+      </c>
+      <c r="E69" t="s">
+        <v>167</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>42</v>
+      </c>
+      <c r="B70" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" t="s">
+        <v>235</v>
+      </c>
+      <c r="D70" t="s">
+        <v>166</v>
+      </c>
+      <c r="E70" t="s">
+        <v>167</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>162</v>
+      </c>
+      <c r="C71" t="s">
+        <v>236</v>
+      </c>
+      <c r="D71" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
+        <v>237</v>
+      </c>
+      <c r="D72" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" t="s">
+        <v>167</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <v>6885</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B73" t="s">
         <v>97</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49">
-        <v>1</v>
-      </c>
-      <c r="E49" t="s">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
-        <v>98</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
-        <v>100</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
-        <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>103</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
-        <v>106</v>
-      </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
-      </c>
-      <c r="D53">
-        <v>1</v>
-      </c>
-      <c r="E53" t="s">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
-        <v>108</v>
-      </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
-        <v>110</v>
-      </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55" t="s">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
-        <v>112</v>
-      </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56" t="s">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57" t="s">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58" t="s">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59" t="s">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60" t="s">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
-        <v>126</v>
-      </c>
-      <c r="B61" t="s">
-        <v>127</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2</v>
-      </c>
-      <c r="F61">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
-        <v>130</v>
-      </c>
-      <c r="B62" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62" t="s">
-        <v>0</v>
-      </c>
-      <c r="F62">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
-        <v>132</v>
-      </c>
-      <c r="B63" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63" t="s">
-        <v>0</v>
-      </c>
-      <c r="F63">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
-        <v>136</v>
-      </c>
-      <c r="B64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64" t="s">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65" t="s">
-        <v>0</v>
-      </c>
-      <c r="F65">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
-        <v>140</v>
-      </c>
-      <c r="B66" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>0</v>
-      </c>
-      <c r="F66">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
-        <v>142</v>
-      </c>
-      <c r="B67" t="s">
-        <v>143</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>6885</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
-        <v>146</v>
-      </c>
-      <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>1</v>
-      </c>
-      <c r="E68" t="s">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" t="s">
-        <v>151</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
-        <v>152</v>
-      </c>
-      <c r="B70" t="s">
-        <v>153</v>
-      </c>
-      <c r="C70">
-        <v>1</v>
-      </c>
-      <c r="D70">
-        <v>1</v>
-      </c>
-      <c r="E70" t="s">
-        <v>0</v>
-      </c>
-      <c r="F70">
-        <v>5294</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
-        <v>74</v>
-      </c>
-      <c r="B71" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
-      </c>
-      <c r="D71">
-        <v>1</v>
-      </c>
-      <c r="E71" t="s">
-        <v>0</v>
-      </c>
-      <c r="F71">
-        <v>9612</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
-        <v>155</v>
-      </c>
-      <c r="B72" t="s">
-        <v>156</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
-      </c>
-      <c r="D72">
-        <v>1</v>
-      </c>
-      <c r="E72" t="s">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>5728</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
-        <v>157</v>
-      </c>
-      <c r="B73" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
+      <c r="C73" t="s">
+        <v>238</v>
+      </c>
+      <c r="D73" t="s">
+        <v>166</v>
       </c>
       <c r="E73" t="s">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73">
         <v>6885</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:F73">
-    <sortCondition descending="1" ref="C2:C73"/>
-    <sortCondition descending="1" ref="D2:D73"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
